--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ntf5-Ngfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ntf5-Ngfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Ntf5</t>
+  </si>
+  <si>
+    <t>Ngfr</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Ntf5</t>
-  </si>
-  <si>
-    <t>Ngfr</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -531,25 +534,25 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.121806</v>
+        <v>0.2515545</v>
       </c>
       <c r="H2">
-        <v>0.365418</v>
+        <v>0.503109</v>
       </c>
       <c r="I2">
-        <v>0.155807708477415</v>
+        <v>0.3771142493566836</v>
       </c>
       <c r="J2">
-        <v>0.1558077084774149</v>
+        <v>0.2875567487178491</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.2530545</v>
+        <v>0.337665</v>
       </c>
       <c r="N2">
-        <v>24.506109</v>
+        <v>0.67533</v>
       </c>
       <c r="O2">
-        <v>0.9608496608412348</v>
+        <v>0.01438349055657064</v>
       </c>
       <c r="P2">
-        <v>0.9424019822271915</v>
+        <v>0.0143657952272707</v>
       </c>
       <c r="Q2">
-        <v>1.492495556427</v>
+        <v>0.0849411502425</v>
       </c>
       <c r="R2">
-        <v>8.954973338562001</v>
+        <v>0.33976460097</v>
       </c>
       <c r="S2">
-        <v>0.1497077838469741</v>
+        <v>0.005424219244370082</v>
       </c>
       <c r="T2">
-        <v>0.1468334933153922</v>
+        <v>0.004130981368300356</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +596,55 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.121806</v>
+        <v>0.2515545</v>
       </c>
       <c r="H3">
-        <v>0.365418</v>
+        <v>0.503109</v>
       </c>
       <c r="I3">
-        <v>0.155807708477415</v>
+        <v>0.3771142493566836</v>
       </c>
       <c r="J3">
-        <v>0.1558077084774149</v>
+        <v>0.2875567487178491</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.241569</v>
+        <v>0.05783366666666667</v>
       </c>
       <c r="N3">
-        <v>0.7247070000000001</v>
+        <v>0.173501</v>
       </c>
       <c r="O3">
-        <v>0.0189431534577567</v>
+        <v>0.002463536340313192</v>
       </c>
       <c r="P3">
-        <v>0.0278691861418686</v>
+        <v>0.003690758351808291</v>
       </c>
       <c r="Q3">
-        <v>0.029424553614</v>
+        <v>0.0145483191015</v>
       </c>
       <c r="R3">
-        <v>0.264820982526</v>
+        <v>0.087289914609</v>
       </c>
       <c r="S3">
-        <v>0.002951489331589091</v>
+        <v>0.0009290346577401209</v>
       </c>
       <c r="T3">
-        <v>0.004342234029895075</v>
+        <v>0.00106130247194924</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +658,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.121806</v>
+        <v>0.2515545</v>
       </c>
       <c r="H4">
-        <v>0.365418</v>
+        <v>0.503109</v>
       </c>
       <c r="I4">
-        <v>0.155807708477415</v>
+        <v>0.3771142493566836</v>
       </c>
       <c r="J4">
-        <v>0.1558077084774149</v>
+        <v>0.2875567487178491</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2576883333333334</v>
+        <v>23.0803745</v>
       </c>
       <c r="N4">
-        <v>0.7730650000000001</v>
+        <v>46.160749</v>
       </c>
       <c r="O4">
-        <v>0.02020718570100838</v>
+        <v>0.9831529731031161</v>
       </c>
       <c r="P4">
-        <v>0.02972883163094002</v>
+        <v>0.981943446420921</v>
       </c>
       <c r="Q4">
-        <v>0.03138798513</v>
+        <v>5.805972067160249</v>
       </c>
       <c r="R4">
-        <v>0.28249186617</v>
+        <v>23.223888268641</v>
       </c>
       <c r="S4">
-        <v>0.003148435298851702</v>
+        <v>0.3707609954545734</v>
       </c>
       <c r="T4">
-        <v>0.004631981132127654</v>
+        <v>0.2823644648775995</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +720,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,16 +729,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.1442246666666667</v>
+        <v>0.121806</v>
       </c>
       <c r="H5">
-        <v>0.432674</v>
+        <v>0.365418</v>
       </c>
       <c r="I5">
-        <v>0.184484465619529</v>
+        <v>0.182603683325642</v>
       </c>
       <c r="J5">
-        <v>0.184484465619529</v>
+        <v>0.2088581440661546</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.2530545</v>
+        <v>0.337665</v>
       </c>
       <c r="N5">
-        <v>24.506109</v>
+        <v>0.67533</v>
       </c>
       <c r="O5">
-        <v>0.9608496608412348</v>
+        <v>0.01438349055657064</v>
       </c>
       <c r="P5">
-        <v>0.9424019822271915</v>
+        <v>0.0143657952272707</v>
       </c>
       <c r="Q5">
-        <v>1.767192700911</v>
+        <v>0.04112962299</v>
       </c>
       <c r="R5">
-        <v>10.603156205466</v>
+        <v>0.24677773794</v>
       </c>
       <c r="S5">
-        <v>0.1772618362210009</v>
+        <v>0.002626478354709386</v>
       </c>
       <c r="T5">
-        <v>0.1738585260899683</v>
+        <v>0.00300041332920218</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +782,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -788,46 +791,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.1442246666666667</v>
+        <v>0.121806</v>
       </c>
       <c r="H6">
-        <v>0.432674</v>
+        <v>0.365418</v>
       </c>
       <c r="I6">
-        <v>0.184484465619529</v>
+        <v>0.182603683325642</v>
       </c>
       <c r="J6">
-        <v>0.184484465619529</v>
+        <v>0.2088581440661546</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.241569</v>
+        <v>0.05783366666666667</v>
       </c>
       <c r="N6">
-        <v>0.7247070000000001</v>
+        <v>0.173501</v>
       </c>
       <c r="O6">
-        <v>0.0189431534577567</v>
+        <v>0.002463536340313192</v>
       </c>
       <c r="P6">
-        <v>0.0278691861418686</v>
+        <v>0.003690758351808291</v>
       </c>
       <c r="Q6">
-        <v>0.03484020850200001</v>
+        <v>0.007044487602000001</v>
       </c>
       <c r="R6">
-        <v>0.313561876518</v>
+        <v>0.063400388418</v>
       </c>
       <c r="S6">
-        <v>0.003494717542802978</v>
+        <v>0.0004498508097477611</v>
       </c>
       <c r="T6">
-        <v>0.005141431912633811</v>
+        <v>0.0007708449395553395</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +844,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -850,46 +853,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.1442246666666667</v>
+        <v>0.121806</v>
       </c>
       <c r="H7">
-        <v>0.432674</v>
+        <v>0.365418</v>
       </c>
       <c r="I7">
-        <v>0.184484465619529</v>
+        <v>0.182603683325642</v>
       </c>
       <c r="J7">
-        <v>0.184484465619529</v>
+        <v>0.2088581440661546</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2576883333333334</v>
+        <v>23.0803745</v>
       </c>
       <c r="N7">
-        <v>0.7730650000000001</v>
+        <v>46.160749</v>
       </c>
       <c r="O7">
-        <v>0.02020718570100838</v>
+        <v>0.9831529731031161</v>
       </c>
       <c r="P7">
-        <v>0.02972883163094002</v>
+        <v>0.981943446420921</v>
       </c>
       <c r="Q7">
-        <v>0.03716501397888889</v>
+        <v>2.811328096347</v>
       </c>
       <c r="R7">
-        <v>0.3344851258100001</v>
+        <v>16.867968578082</v>
       </c>
       <c r="S7">
-        <v>0.003727911855725119</v>
+        <v>0.1795273541611848</v>
       </c>
       <c r="T7">
-        <v>0.005484507616926919</v>
+        <v>0.2050868857973971</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +906,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -912,16 +915,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.1277066666666667</v>
+        <v>0.244596</v>
       </c>
       <c r="H8">
-        <v>0.38312</v>
+        <v>0.733788</v>
       </c>
       <c r="I8">
-        <v>0.1633555251023957</v>
+        <v>0.3666825158589784</v>
       </c>
       <c r="J8">
-        <v>0.1633555251023956</v>
+        <v>0.4194035318950228</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -930,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.2530545</v>
+        <v>0.337665</v>
       </c>
       <c r="N8">
-        <v>24.506109</v>
+        <v>0.67533</v>
       </c>
       <c r="O8">
-        <v>0.9608496608412348</v>
+        <v>0.01438349055657064</v>
       </c>
       <c r="P8">
-        <v>0.9424019822271915</v>
+        <v>0.0143657952272707</v>
       </c>
       <c r="Q8">
-        <v>1.56479674668</v>
+        <v>0.08259150833999999</v>
       </c>
       <c r="R8">
-        <v>9.388780480079999</v>
+        <v>0.49554905004</v>
       </c>
       <c r="S8">
-        <v>0.1569601008911787</v>
+        <v>0.005274174504117178</v>
       </c>
       <c r="T8">
-        <v>0.1539465706642614</v>
+        <v>0.006025065256797994</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +968,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -974,46 +977,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.1277066666666667</v>
+        <v>0.244596</v>
       </c>
       <c r="H9">
-        <v>0.38312</v>
+        <v>0.733788</v>
       </c>
       <c r="I9">
-        <v>0.1633555251023957</v>
+        <v>0.3666825158589784</v>
       </c>
       <c r="J9">
-        <v>0.1633555251023956</v>
+        <v>0.4194035318950228</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.241569</v>
+        <v>0.05783366666666667</v>
       </c>
       <c r="N9">
-        <v>0.7247070000000001</v>
+        <v>0.173501</v>
       </c>
       <c r="O9">
-        <v>0.0189431534577567</v>
+        <v>0.002463536340313192</v>
       </c>
       <c r="P9">
-        <v>0.0278691861418686</v>
+        <v>0.003690758351808291</v>
       </c>
       <c r="Q9">
-        <v>0.03084997176</v>
+        <v>0.014145883532</v>
       </c>
       <c r="R9">
-        <v>0.27764974584</v>
+        <v>0.127312951788</v>
       </c>
       <c r="S9">
-        <v>0.003094468780187108</v>
+        <v>0.0009033357031760617</v>
       </c>
       <c r="T9">
-        <v>0.004552585536381353</v>
+        <v>0.001547917088119451</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1030,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1036,46 +1039,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.1277066666666667</v>
+        <v>0.244596</v>
       </c>
       <c r="H10">
-        <v>0.38312</v>
+        <v>0.733788</v>
       </c>
       <c r="I10">
-        <v>0.1633555251023957</v>
+        <v>0.3666825158589784</v>
       </c>
       <c r="J10">
-        <v>0.1633555251023956</v>
+        <v>0.4194035318950228</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2576883333333334</v>
+        <v>23.0803745</v>
       </c>
       <c r="N10">
-        <v>0.7730650000000001</v>
+        <v>46.160749</v>
       </c>
       <c r="O10">
-        <v>0.02020718570100838</v>
+        <v>0.9831529731031161</v>
       </c>
       <c r="P10">
-        <v>0.02972883163094002</v>
+        <v>0.981943446420921</v>
       </c>
       <c r="Q10">
-        <v>0.03290851808888889</v>
+        <v>5.645367281202</v>
       </c>
       <c r="R10">
-        <v>0.2961766628</v>
+        <v>33.872203687212</v>
       </c>
       <c r="S10">
-        <v>0.003300955431029846</v>
+        <v>0.3605050056516851</v>
       </c>
       <c r="T10">
-        <v>0.004856368901752915</v>
+        <v>0.4118305495501054</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,7 +1092,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1098,16 +1101,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.388034</v>
+        <v>0.04909466666666667</v>
       </c>
       <c r="H11">
-        <v>1.164102</v>
+        <v>0.147284</v>
       </c>
       <c r="I11">
-        <v>0.4963523008006604</v>
+        <v>0.07359955145869621</v>
       </c>
       <c r="J11">
-        <v>0.4963523008006603</v>
+        <v>0.08418157532097355</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1116,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.2530545</v>
+        <v>0.337665</v>
       </c>
       <c r="N11">
-        <v>24.506109</v>
+        <v>0.67533</v>
       </c>
       <c r="O11">
-        <v>0.9608496608412348</v>
+        <v>0.01438349055657064</v>
       </c>
       <c r="P11">
-        <v>0.9424019822271915</v>
+        <v>0.0143657952272707</v>
       </c>
       <c r="Q11">
-        <v>4.754601749853</v>
+        <v>0.01657755062</v>
       </c>
       <c r="R11">
-        <v>28.527610499118</v>
+        <v>0.09946530372</v>
       </c>
       <c r="S11">
-        <v>0.4769199398820811</v>
+        <v>0.001058618453373991</v>
       </c>
       <c r="T11">
-        <v>0.4677633921575695</v>
+        <v>0.001209335272970171</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1154,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1160,46 +1163,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.388034</v>
+        <v>0.04909466666666667</v>
       </c>
       <c r="H12">
-        <v>1.164102</v>
+        <v>0.147284</v>
       </c>
       <c r="I12">
-        <v>0.4963523008006604</v>
+        <v>0.07359955145869621</v>
       </c>
       <c r="J12">
-        <v>0.4963523008006603</v>
+        <v>0.08418157532097355</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.241569</v>
+        <v>0.05783366666666667</v>
       </c>
       <c r="N12">
-        <v>0.7247070000000001</v>
+        <v>0.173501</v>
       </c>
       <c r="O12">
-        <v>0.0189431534577567</v>
+        <v>0.002463536340313192</v>
       </c>
       <c r="P12">
-        <v>0.0278691861418686</v>
+        <v>0.003690758351808291</v>
       </c>
       <c r="Q12">
-        <v>0.09373698534600002</v>
+        <v>0.002839324587111111</v>
       </c>
       <c r="R12">
-        <v>0.8436328681140001</v>
+        <v>0.025553921284</v>
       </c>
       <c r="S12">
-        <v>0.009402477803177522</v>
+        <v>0.0001813151696492489</v>
       </c>
       <c r="T12">
-        <v>0.01383293466295836</v>
+        <v>0.0003106938521842619</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1216,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1222,46 +1225,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.388034</v>
+        <v>0.04909466666666667</v>
       </c>
       <c r="H13">
-        <v>1.164102</v>
+        <v>0.147284</v>
       </c>
       <c r="I13">
-        <v>0.4963523008006604</v>
+        <v>0.07359955145869621</v>
       </c>
       <c r="J13">
-        <v>0.4963523008006603</v>
+        <v>0.08418157532097355</v>
       </c>
       <c r="K13">
         <v>2</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2576883333333334</v>
+        <v>23.0803745</v>
       </c>
       <c r="N13">
-        <v>0.7730650000000001</v>
+        <v>46.160749</v>
       </c>
       <c r="O13">
-        <v>0.02020718570100838</v>
+        <v>0.9831529731031161</v>
       </c>
       <c r="P13">
-        <v>0.02972883163094002</v>
+        <v>0.981943446420921</v>
       </c>
       <c r="Q13">
-        <v>0.09999183473666667</v>
+        <v>1.133123292619333</v>
       </c>
       <c r="R13">
-        <v>0.8999265126300001</v>
+        <v>6.798739755715999</v>
       </c>
       <c r="S13">
-        <v>0.01002988311540172</v>
+        <v>0.07235961783567296</v>
       </c>
       <c r="T13">
-        <v>0.01475597398013252</v>
+        <v>0.08266154619581911</v>
       </c>
     </row>
   </sheetData>
